--- a/docs/CreateNewProjectInVS.xlsx
+++ b/docs/CreateNewProjectInVS.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ConsoleApp" sheetId="1" r:id="rId1"/>
+    <sheet name="CreateNewClass" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">ConsoleApp!$A$1:$AG$184</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">CreateNewClass!$A$1:$AG$184</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>1. Tạo mới project trên VS 2015</t>
   </si>
@@ -32,6 +34,21 @@
   </si>
   <si>
     <t>2. Chương trình có thể build và chạy thành công</t>
+  </si>
+  <si>
+    <t>1. Tạo mới class</t>
+  </si>
+  <si>
+    <t>2. Nhấn Finish class sẽ được tạo ra.</t>
+  </si>
+  <si>
+    <t>3. Thêm code vào class mới tạo</t>
+  </si>
+  <si>
+    <t>4. Để sử dụng class Circle chúng ta cần include file "Circle.h"</t>
+  </si>
+  <si>
+    <t>5. Thêm code ở hàm main để hiển thị kết quả như bên dưới.</t>
   </si>
 </sst>
 </file>
@@ -702,6 +719,423 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180196</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="266700"/>
+          <a:ext cx="6238096" cy="4638096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>263035</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647701" y="5419725"/>
+          <a:ext cx="6320934" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Down Arrow 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3409950" y="5038725"/>
+          <a:ext cx="304800" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>95696</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647699" y="9648825"/>
+          <a:ext cx="6353176" cy="4924871"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Down Arrow 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3457575" y="9305925"/>
+          <a:ext cx="304800" cy="333375"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>513989</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>132941</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="14954250"/>
+          <a:ext cx="2885714" cy="3276191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>494621</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>47088</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="18611850"/>
+          <a:ext cx="5438096" cy="4295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>551689</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>18396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6648450" y="18592800"/>
+          <a:ext cx="6095239" cy="5238096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>523040</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>8918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="24298275"/>
+          <a:ext cx="6685715" cy="4857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>599452</xdr:colOff>
+      <xdr:row>169</xdr:row>
+      <xdr:rowOff>142543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="29679900"/>
+          <a:ext cx="4990477" cy="2657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -996,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q145"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A142" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="Q168" sqref="Q168"/>
     </sheetView>
   </sheetViews>
@@ -1035,4 +1469,49 @@
   <pageSetup paperSize="9" scale="28" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A155"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="28" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>